--- a/docs/org.eclipse.sphinx.doc.design/SphinxFeatureMap.xlsx
+++ b/docs/org.eclipse.sphinx.doc.design/SphinxFeatureMap.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15132" windowHeight="9300"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="15132" windowHeight="9240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Container Features" sheetId="4" r:id="rId1"/>
     <sheet name="Component Features" sheetId="1" r:id="rId2"/>
     <sheet name="Example Features" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="80000"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="119">
   <si>
     <t>Eclipse Platform Extensions</t>
   </si>
@@ -31,15 +31,6 @@
   </si>
   <si>
     <t>Validation Runtime Extensions</t>
-  </si>
-  <si>
-    <t>Compare &amp; Merge Integration</t>
-  </si>
-  <si>
-    <t>M2x Integration</t>
-  </si>
-  <si>
-    <t>Xtend/Xpand Integration</t>
   </si>
   <si>
     <t>Core</t>
@@ -180,9 +171,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>Tests</t>
   </si>
   <si>
     <t>org.eclipse.sphinx.gmf.runtime.ui (rename to gmf.editors)
@@ -223,25 +211,8 @@
     <t>org.eclipse.sphinx.examples.core</t>
   </si>
   <si>
-    <t>Sphinx Perspective
-Generic Sphinx Core examples</t>
-  </si>
-  <si>
-    <t>Generic Sphinx Validation examples</t>
-  </si>
-  <si>
-    <t>Generic Xtend/Xpand examples</t>
-  </si>
-  <si>
-    <t>Sphinx Model Explorer
-Generic Common Navigator examples</t>
-  </si>
-  <si>
     <t>org.eclipse.sphinx.examples.actions.newwizard
 org.eclipse.sphinx.examples.common.ui</t>
-  </si>
-  <si>
-    <t>UML2 IDE integration</t>
   </si>
   <si>
     <t>org.eclipse.sphinx.examples.hummingbird10
@@ -276,16 +247,7 @@
 org.eclipse.sphinx.examples.uml2.ide.ui</t>
   </si>
   <si>
-    <t>Hummingbird metamodels and examples</t>
-  </si>
-  <si>
     <t>Compare Engine &amp; Editor</t>
-  </si>
-  <si>
-    <t>Subversive SVN Team Support</t>
-  </si>
-  <si>
-    <t>IDE integration of EMF Extended Library example</t>
   </si>
   <si>
     <t>org.eclipse.sphinx.source</t>
@@ -300,9 +262,6 @@
   </si>
   <si>
     <t>org.eclipse.sphinx.doc</t>
-  </si>
-  <si>
-    <t>Documentation</t>
   </si>
   <si>
     <t>org.eclipse.sphinx.examples.core
@@ -320,24 +279,6 @@
     <t>all generated source features</t>
   </si>
   <si>
-    <t>Runtime (i.e., binaries without sources and documentation)</t>
-  </si>
-  <si>
-    <t>SDK including runtime, sources and documentation (but no examples)</t>
-  </si>
-  <si>
-    <t>Examples (including sources)</t>
-  </si>
-  <si>
-    <t>Test utilities for JUnit-based integration tests running against a user-defined reference workspace (including sources)</t>
-  </si>
-  <si>
-    <t>Required third-party components (Eclipse Orbit plug-ins)</t>
-  </si>
-  <si>
-    <t>Sources (generated)</t>
-  </si>
-  <si>
     <t>Included plug-ins</t>
   </si>
   <si>
@@ -363,6 +304,137 @@
   </si>
   <si>
     <t>Feature description</t>
+  </si>
+  <si>
+    <t>Sphinx Runtime</t>
+  </si>
+  <si>
+    <t>Sphinx Documentation</t>
+  </si>
+  <si>
+    <t>Sphinx Sources</t>
+  </si>
+  <si>
+    <t>Sphinx SDK</t>
+  </si>
+  <si>
+    <t>Sphinx Examples</t>
+  </si>
+  <si>
+    <t>Sphinx Tests</t>
+  </si>
+  <si>
+    <t>Sphinx Test Utilities</t>
+  </si>
+  <si>
+    <t>Third-Party Components for Sphinx</t>
+  </si>
+  <si>
+    <t>Includes source code for Sphinx runtime binaries</t>
+  </si>
+  <si>
+    <t>Includes Sphinx Developer Guide (Help)</t>
+  </si>
+  <si>
+    <t>Includes Sphinx examples (with sources)</t>
+  </si>
+  <si>
+    <t>Includes Sphinx unit and integration tests</t>
+  </si>
+  <si>
+    <t>Includes utilities for JUnit-based Sphinx integration tests running against a predefined reference workspace (with sources)</t>
+  </si>
+  <si>
+    <t>Includes third-party components required by Sphinx (selected Orbit plug-ins)</t>
+  </si>
+  <si>
+    <t>Includes Sphinx runtime, sources and documentation (but no examples)</t>
+  </si>
+  <si>
+    <t>Compare &amp; Merge IDE Integration</t>
+  </si>
+  <si>
+    <t>M2x IDE Integration</t>
+  </si>
+  <si>
+    <t>Xtend/Xpand IDE Integration</t>
+  </si>
+  <si>
+    <t>Compare Team Support (Subversive SVN)</t>
+  </si>
+  <si>
+    <t>UML2 IDE Integration</t>
+  </si>
+  <si>
+    <t>Exemplary UML2 IDE integration including Model Explorer view contribution for UML2 content, and generic UML2 form editor</t>
+  </si>
+  <si>
+    <t>IDE integration of EMF Extended Library example  including Model Explorer view contribution for Extended Library content, and generic Extended Library form editor</t>
+  </si>
+  <si>
+    <t>Extended Library IDE integration</t>
+  </si>
+  <si>
+    <t>Navigator Examples</t>
+  </si>
+  <si>
+    <t>Hummingbird Metamodels and IDE Integration</t>
+  </si>
+  <si>
+    <t>Hummingbird metamodels and IDE integration including Model Explorer view contribution for Hummingbird content, generic Hummingbird form editor, exemplary graphical Hummingbird editors, exemplary validation services and constraints for Hummingbird, exemplary compare &amp; merge support for Hummingbird, model transformation and code generation examples for Hummingbird, and more</t>
+  </si>
+  <si>
+    <t>Exemplary Xtend/Xpand IDE integration including model transformation and code generation context menu contributions, preferences for Xpand outlets, and more</t>
+  </si>
+  <si>
+    <t>Validation IDE Integration</t>
+  </si>
+  <si>
+    <t>Examplary Validation IDE integration including context menu contributions and actions for invoking validation in various ways</t>
+  </si>
+  <si>
+    <t>Generic Model Explorer view</t>
+  </si>
+  <si>
+    <t>Core Examples</t>
+  </si>
+  <si>
+    <t>Includes Sphinx Perspective, exemplary generic model manipulation actions, and more</t>
+  </si>
+  <si>
+    <t>Common logic for form editors that operate on indiviudal elements of Sphinx-managed shared model instances and integrate into the load/edit/save lifecycle of the same</t>
+  </si>
+  <si>
+    <t>Common logic for GMF-based graphical editors that operate on indiviudal elements of Sphinx-managed shared model instances and integrate into the load/edit/save lifecycle of the same</t>
+  </si>
+  <si>
+    <t>Common logic for Graphiti-based graphical editors that operate on indiviudal elements of Sphinx-managed shared model instances and integrate into the load/edit/save lifecycle of the same</t>
+  </si>
+  <si>
+    <t>Extended runtime-level services for validating models or model fragments and visualizing validation results</t>
+  </si>
+  <si>
+    <t>Common logic for EMF Compare-based compare and merge editors that operate on indiviudal elements of Sphinx-managed shared model instances and integrate into the load/edit/save lifecycle of the same</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>TODO
+services for managing the lifecycle and editing domains of model instances that need to be centrally provided and shared in the workspace of Sphinx-based modeling tool applications
+common runtime-level enhancements such as description of meta-models, description of shared model instances including their scopes, meta-model compatibility services, as well as a couple of performance optimizations and utilities</t>
+  </si>
+  <si>
+    <t>Subversive-based support for using Sphinx-based compare and merge editors in team operations with SVN repositories</t>
+  </si>
+  <si>
+    <t>Includes Sphinx runtime binaries (without sources and documentation)</t>
+  </si>
+  <si>
+    <t>Sphinx Core</t>
+  </si>
+  <si>
+    <t>Common logic for Common Navigator views that operate on Sphinx-managed shared model instances and integrate into the load/edit/save lifecycle of the same</t>
   </si>
 </sst>
 </file>
@@ -512,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -536,7 +608,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -589,6 +660,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -598,17 +676,34 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -917,170 +1012,186 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5546875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="36" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="26.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="35" style="1" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="58.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.21875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="25" t="s">
-        <v>85</v>
+        <v>60</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>84</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>73</v>
+        <v>63</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>61</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="23" t="s">
-        <v>43</v>
+      <c r="F4" s="22" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>42</v>
+      <c r="A5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>42</v>
+      <c r="A6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="132" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="16" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="14" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1098,222 +1209,269 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="21" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="30.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="45.21875" style="1" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="63.6640625" customWidth="1"/>
     <col min="7" max="7" width="42.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="25" t="str">
+        <f>B2</f>
+        <v>Common Navigator Sockets</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="25" t="str">
+        <f>B3</f>
+        <v>Form Editor Sockets</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="25" t="str">
+        <f>B4</f>
+        <v>GMF Editor Sockets</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
+      <c r="B5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D5" s="25" t="str">
+        <f>B5</f>
+        <v>Graphiti Editor Sockets</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="25" t="str">
+        <f>A6</f>
+        <v>Validation Runtime Extensions</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="B7" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="25" t="str">
+        <f>B7</f>
+        <v>Compare Engine &amp; Editor</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="34"/>
+      <c r="B8" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="25" t="str">
+        <f>B8</f>
+        <v>Compare Team Support (Subversive SVN)</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="B9" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="C9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="25" t="str">
+        <f>B9</f>
+        <v>Xtend/Xpand IDE Integration</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="30"/>
+    </row>
+    <row r="11" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="31"/>
+    </row>
+    <row r="12" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" ht="66" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="28"/>
-    </row>
-    <row r="11" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="29"/>
-    </row>
-    <row r="12" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="30"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A10:A12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="D10:D12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
@@ -1329,8 +1487,8 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1342,103 +1500,117 @@
     <col min="5" max="5" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="33"/>
-    </row>
-    <row r="2" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="171.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>55</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="171.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/docs/org.eclipse.sphinx.doc.design/SphinxFeatureMap.xlsx
+++ b/docs/org.eclipse.sphinx.doc.design/SphinxFeatureMap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="15132" windowHeight="9240" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="15132" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Container Features" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="128">
   <si>
     <t>Eclipse Platform Extensions</t>
   </si>
@@ -363,40 +363,22 @@
     <t>Compare Team Support (Subversive SVN)</t>
   </si>
   <si>
-    <t>UML2 IDE Integration</t>
-  </si>
-  <si>
     <t>Exemplary UML2 IDE integration including Model Explorer view contribution for UML2 content, and generic UML2 form editor</t>
   </si>
   <si>
     <t>IDE integration of EMF Extended Library example  including Model Explorer view contribution for Extended Library content, and generic Extended Library form editor</t>
   </si>
   <si>
-    <t>Extended Library IDE integration</t>
-  </si>
-  <si>
-    <t>Navigator Examples</t>
-  </si>
-  <si>
-    <t>Hummingbird Metamodels and IDE Integration</t>
-  </si>
-  <si>
     <t>Hummingbird metamodels and IDE integration including Model Explorer view contribution for Hummingbird content, generic Hummingbird form editor, exemplary graphical Hummingbird editors, exemplary validation services and constraints for Hummingbird, exemplary compare &amp; merge support for Hummingbird, model transformation and code generation examples for Hummingbird, and more</t>
   </si>
   <si>
     <t>Exemplary Xtend/Xpand IDE integration including model transformation and code generation context menu contributions, preferences for Xpand outlets, and more</t>
   </si>
   <si>
-    <t>Validation IDE Integration</t>
-  </si>
-  <si>
     <t>Examplary Validation IDE integration including context menu contributions and actions for invoking validation in various ways</t>
   </si>
   <si>
     <t>Generic Model Explorer view</t>
-  </si>
-  <si>
-    <t>Core Examples</t>
   </si>
   <si>
     <t>Includes Sphinx Perspective, exemplary generic model manipulation actions, and more</t>
@@ -435,6 +417,51 @@
   </si>
   <si>
     <t>Common logic for Common Navigator views that operate on Sphinx-managed shared model instances and integrate into the load/edit/save lifecycle of the same</t>
+  </si>
+  <si>
+    <t>Sphinx Xtend/Xpand IDE Integration</t>
+  </si>
+  <si>
+    <t>Sphinx Compare Team Support (Subversive SVN)</t>
+  </si>
+  <si>
+    <t>Sphinx Compare Engine &amp; Editor</t>
+  </si>
+  <si>
+    <t>Sphinx Validation Runtime Extensions</t>
+  </si>
+  <si>
+    <t>Sphinx Graphiti Editor Sockets</t>
+  </si>
+  <si>
+    <t>Sphinx GMF Editor Sockets</t>
+  </si>
+  <si>
+    <t>Sphinx Form Editor Sockets</t>
+  </si>
+  <si>
+    <t>Sphinx Common Navigator Sockets</t>
+  </si>
+  <si>
+    <t>Sphinx Core Examples</t>
+  </si>
+  <si>
+    <t>Sphinx Navigator Examples</t>
+  </si>
+  <si>
+    <t>Sphinx Exemplary Validation IDE Integration</t>
+  </si>
+  <si>
+    <t>Sphinx Exemplary Xtend/Xpand IDE Integration</t>
+  </si>
+  <si>
+    <t>Sphinx Hummingbird Metamodels and IDE Integration Examples</t>
+  </si>
+  <si>
+    <t>Sphinx Exemplary UML2 IDE Integration</t>
+  </si>
+  <si>
+    <t>Sphinx Exemplary Extended Library IDE integration</t>
   </si>
 </sst>
 </file>
@@ -584,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -667,21 +694,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -691,10 +703,19 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1012,9 +1033,7 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1054,7 +1073,7 @@
         <v>76</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="12" t="s">
@@ -1068,10 +1087,10 @@
       <c r="A3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="31" t="s">
         <v>84</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -1088,10 +1107,10 @@
       <c r="A4" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="31" t="s">
         <v>85</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -1142,10 +1161,10 @@
       <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="31" t="s">
         <v>87</v>
       </c>
       <c r="D7" s="21" t="s">
@@ -1209,8 +1228,8 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1248,21 +1267,20 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="25" t="str">
-        <f>B2</f>
-        <v>Common Navigator Sockets</v>
+      <c r="D2" s="29" t="s">
+        <v>120</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>26</v>
@@ -1270,19 +1288,18 @@
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="25" t="str">
-        <f>B3</f>
-        <v>Form Editor Sockets</v>
+      <c r="D3" s="29" t="s">
+        <v>119</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>12</v>
@@ -1290,19 +1307,18 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="37" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="32" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="25" t="str">
-        <f>B4</f>
-        <v>GMF Editor Sockets</v>
+      <c r="D4" s="29" t="s">
+        <v>118</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>43</v>
@@ -1310,19 +1326,18 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="25" t="str">
-        <f>B5</f>
-        <v>Graphiti Editor Sockets</v>
+      <c r="D5" s="29" t="s">
+        <v>117</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>29</v>
@@ -1337,12 +1352,11 @@
       <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="25" t="str">
-        <f>A6</f>
-        <v>Validation Runtime Extensions</v>
+      <c r="D6" s="29" t="s">
+        <v>116</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>25</v>
@@ -1350,7 +1364,7 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="37" t="s">
         <v>91</v>
       </c>
       <c r="B7" s="19" t="s">
@@ -1359,12 +1373,11 @@
       <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="25" t="str">
-        <f>B7</f>
-        <v>Compare Engine &amp; Editor</v>
+      <c r="D7" s="29" t="s">
+        <v>115</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>27</v>
@@ -1372,19 +1385,18 @@
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="32" t="s">
         <v>94</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="25" t="str">
-        <f>B8</f>
-        <v>Compare Team Support (Subversive SVN)</v>
+      <c r="D8" s="29" t="s">
+        <v>114</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>28</v>
@@ -1395,18 +1407,17 @@
       <c r="A9" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="32" t="s">
         <v>93</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="25" t="str">
-        <f>B9</f>
-        <v>Xtend/Xpand IDE Integration</v>
+      <c r="D9" s="29" t="s">
+        <v>113</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>30</v>
@@ -1414,51 +1425,51 @@
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="37" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>114</v>
+      <c r="D10" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>108</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="30"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="11" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="41"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="31"/>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="42"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
       <c r="F12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="32"/>
+      <c r="G12" s="35"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" s="4"/>
@@ -1487,14 +1498,14 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="31.109375" style="1" customWidth="1" outlineLevel="1"/>
     <col min="3" max="3" width="43" style="1" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="61.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" customWidth="1"/>
@@ -1520,10 +1531,10 @@
         <v>51</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>52</v>
@@ -1534,10 +1545,10 @@
         <v>49</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>46</v>
@@ -1548,10 +1559,10 @@
         <v>48</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>50</v>
@@ -1562,10 +1573,10 @@
         <v>47</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>45</v>
@@ -1576,10 +1587,10 @@
         <v>54</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>53</v>
@@ -1590,10 +1601,10 @@
         <v>56</v>
       </c>
       <c r="B7" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>95</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>96</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>58</v>
@@ -1604,10 +1615,10 @@
         <v>57</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>55</v>

--- a/docs/org.eclipse.sphinx.doc.design/SphinxFeatureMap.xlsx
+++ b/docs/org.eclipse.sphinx.doc.design/SphinxFeatureMap.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="127">
   <si>
     <t>Eclipse Platform Extensions</t>
   </si>
@@ -312,9 +312,6 @@
     <t>Sphinx Documentation</t>
   </si>
   <si>
-    <t>Sphinx Sources</t>
-  </si>
-  <si>
     <t>Sphinx SDK</t>
   </si>
   <si>
@@ -330,15 +327,9 @@
     <t>Third-Party Components for Sphinx</t>
   </si>
   <si>
-    <t>Includes source code for Sphinx runtime binaries</t>
-  </si>
-  <si>
     <t>Includes Sphinx Developer Guide (Help)</t>
   </si>
   <si>
-    <t>Includes Sphinx examples (with sources)</t>
-  </si>
-  <si>
     <t>Includes Sphinx unit and integration tests</t>
   </si>
   <si>
@@ -346,9 +337,6 @@
   </si>
   <si>
     <t>Includes third-party components required by Sphinx (selected Orbit plug-ins)</t>
-  </si>
-  <si>
-    <t>Includes Sphinx runtime, sources and documentation (but no examples)</t>
   </si>
   <si>
     <t>Compare &amp; Merge IDE Integration</t>
@@ -410,9 +398,6 @@
     <t>Subversive-based support for using Sphinx-based compare and merge editors in team operations with SVN repositories</t>
   </si>
   <si>
-    <t>Includes Sphinx runtime binaries (without sources and documentation)</t>
-  </si>
-  <si>
     <t>Sphinx Core</t>
   </si>
   <si>
@@ -462,6 +447,18 @@
   </si>
   <si>
     <t>Sphinx Exemplary Extended Library IDE integration</t>
+  </si>
+  <si>
+    <t>Includes Sphinx runtime binaries (without source code and documentation)</t>
+  </si>
+  <si>
+    <t>Includes Sphinx runtime, source code and documentation (but no examples)</t>
+  </si>
+  <si>
+    <t>Includes Sphinx examples (with source code)</t>
+  </si>
+  <si>
+    <t>automatically generated</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1030,9 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1073,7 +1072,7 @@
         <v>76</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="12" t="s">
@@ -1083,15 +1082,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>65</v>
@@ -1111,7 +1110,7 @@
         <v>77</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>61</v>
@@ -1126,10 +1125,10 @@
         <v>32</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -1144,10 +1143,10 @@
         <v>33</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="12" t="s">
@@ -1162,10 +1161,10 @@
         <v>38</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>44</v>
@@ -1182,10 +1181,10 @@
         <v>34</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>37</v>
@@ -1200,10 +1199,10 @@
         <v>35</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>36</v>
@@ -1229,7 +1228,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1277,10 +1276,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>26</v>
@@ -1296,10 +1295,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>12</v>
@@ -1315,10 +1314,10 @@
         <v>13</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>43</v>
@@ -1334,10 +1333,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>29</v>
@@ -1353,10 +1352,10 @@
         <v>10</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>25</v>
@@ -1365,7 +1364,7 @@
     </row>
     <row r="7" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>59</v>
@@ -1374,10 +1373,10 @@
         <v>9</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>27</v>
@@ -1387,16 +1386,16 @@
     <row r="8" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="32" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>28</v>
@@ -1405,19 +1404,19 @@
     </row>
     <row r="9" spans="1:7" ht="66" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>30</v>
@@ -1435,10 +1434,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>24</v>
@@ -1531,10 +1530,10 @@
         <v>51</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>52</v>
@@ -1545,10 +1544,10 @@
         <v>49</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>46</v>
@@ -1559,10 +1558,10 @@
         <v>48</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>50</v>
@@ -1573,10 +1572,10 @@
         <v>47</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>45</v>
@@ -1587,10 +1586,10 @@
         <v>54</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>53</v>
@@ -1601,10 +1600,10 @@
         <v>56</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>58</v>
@@ -1615,10 +1614,10 @@
         <v>57</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>55</v>

--- a/docs/org.eclipse.sphinx.doc.design/SphinxFeatureMap.xlsx
+++ b/docs/org.eclipse.sphinx.doc.design/SphinxFeatureMap.xlsx
@@ -333,9 +333,6 @@
     <t>Includes Sphinx unit and integration tests</t>
   </si>
   <si>
-    <t>Includes utilities for JUnit-based Sphinx integration tests running against a predefined reference workspace (with sources)</t>
-  </si>
-  <si>
     <t>Includes third-party components required by Sphinx (selected Orbit plug-ins)</t>
   </si>
   <si>
@@ -459,6 +456,9 @@
   </si>
   <si>
     <t>automatically generated</t>
+  </si>
+  <si>
+    <t>Includes utilities for JUnit-based Sphinx integration tests running against a predefined reference workspace (with source code)</t>
   </si>
 </sst>
 </file>
@@ -1030,8 +1030,8 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1072,7 +1072,7 @@
         <v>76</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="12" t="s">
@@ -1087,10 +1087,10 @@
         <v>60</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>65</v>
@@ -1128,7 +1128,7 @@
         <v>78</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -1146,7 +1146,7 @@
         <v>79</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="12" t="s">
@@ -1184,7 +1184,7 @@
         <v>81</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>37</v>
@@ -1202,7 +1202,7 @@
         <v>82</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>36</v>
@@ -1276,10 +1276,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>26</v>
@@ -1295,10 +1295,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>12</v>
@@ -1314,10 +1314,10 @@
         <v>13</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>43</v>
@@ -1333,10 +1333,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>29</v>
@@ -1352,10 +1352,10 @@
         <v>10</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>25</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="7" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>59</v>
@@ -1373,10 +1373,10 @@
         <v>9</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>27</v>
@@ -1386,16 +1386,16 @@
     <row r="8" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>28</v>
@@ -1404,19 +1404,19 @@
     </row>
     <row r="9" spans="1:7" ht="66" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="32" t="s">
         <v>88</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>89</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>30</v>
@@ -1434,10 +1434,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>24</v>
@@ -1530,10 +1530,10 @@
         <v>51</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>52</v>
@@ -1544,10 +1544,10 @@
         <v>49</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>46</v>
@@ -1558,10 +1558,10 @@
         <v>48</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>50</v>
@@ -1572,10 +1572,10 @@
         <v>47</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>45</v>
@@ -1586,10 +1586,10 @@
         <v>54</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>53</v>
@@ -1600,10 +1600,10 @@
         <v>56</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>58</v>
@@ -1614,10 +1614,10 @@
         <v>57</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>55</v>

--- a/docs/org.eclipse.sphinx.doc.design/SphinxFeatureMap.xlsx
+++ b/docs/org.eclipse.sphinx.doc.design/SphinxFeatureMap.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="180" windowWidth="15132" windowHeight="9240"/>
@@ -159,17 +159,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>org.eclipse.sphinx.emf.navigators
-org.eclipse.sphinx.emf.editors.forms
-org.eclipse.sphinx.gmf.editors
-org.eclipse.sphinx.graphiti.editors
-org.eclipse.sphinx.emf.validation
-org.eclipse.sphinx.emf.compare
-org.eclipse.sphinx.emf.compare.team.subversive
-org.eclipse.sphinx.xtendxpand
-org.eclipse.sphinx.core</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -264,201 +253,212 @@
     <t>org.eclipse.sphinx.doc</t>
   </si>
   <si>
+    <t>all generated source plug-ins</t>
+  </si>
+  <si>
+    <t>all generated source features</t>
+  </si>
+  <si>
+    <t>Included plug-ins</t>
+  </si>
+  <si>
+    <t>Included features</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Exposed in update site/downloads</t>
+  </si>
+  <si>
+    <t>Sub service</t>
+  </si>
+  <si>
+    <t>Feature id</t>
+  </si>
+  <si>
+    <t>Feature name</t>
+  </si>
+  <si>
+    <t>Feature description</t>
+  </si>
+  <si>
+    <t>Sphinx Runtime</t>
+  </si>
+  <si>
+    <t>Sphinx Documentation</t>
+  </si>
+  <si>
+    <t>Sphinx SDK</t>
+  </si>
+  <si>
+    <t>Sphinx Examples</t>
+  </si>
+  <si>
+    <t>Sphinx Tests</t>
+  </si>
+  <si>
+    <t>Sphinx Test Utilities</t>
+  </si>
+  <si>
+    <t>Third-Party Components for Sphinx</t>
+  </si>
+  <si>
+    <t>Includes Sphinx Developer Guide (Help)</t>
+  </si>
+  <si>
+    <t>Includes Sphinx unit and integration tests</t>
+  </si>
+  <si>
+    <t>Includes third-party components required by Sphinx (selected Orbit plug-ins)</t>
+  </si>
+  <si>
+    <t>Compare &amp; Merge IDE Integration</t>
+  </si>
+  <si>
+    <t>M2x IDE Integration</t>
+  </si>
+  <si>
+    <t>Xtend/Xpand IDE Integration</t>
+  </si>
+  <si>
+    <t>Compare Team Support (Subversive SVN)</t>
+  </si>
+  <si>
+    <t>Exemplary UML2 IDE integration including Model Explorer view contribution for UML2 content, and generic UML2 form editor</t>
+  </si>
+  <si>
+    <t>IDE integration of EMF Extended Library example  including Model Explorer view contribution for Extended Library content, and generic Extended Library form editor</t>
+  </si>
+  <si>
+    <t>Hummingbird metamodels and IDE integration including Model Explorer view contribution for Hummingbird content, generic Hummingbird form editor, exemplary graphical Hummingbird editors, exemplary validation services and constraints for Hummingbird, exemplary compare &amp; merge support for Hummingbird, model transformation and code generation examples for Hummingbird, and more</t>
+  </si>
+  <si>
+    <t>Exemplary Xtend/Xpand IDE integration including model transformation and code generation context menu contributions, preferences for Xpand outlets, and more</t>
+  </si>
+  <si>
+    <t>Examplary Validation IDE integration including context menu contributions and actions for invoking validation in various ways</t>
+  </si>
+  <si>
+    <t>Generic Model Explorer view</t>
+  </si>
+  <si>
+    <t>Includes Sphinx Perspective, exemplary generic model manipulation actions, and more</t>
+  </si>
+  <si>
+    <t>Common logic for form editors that operate on indiviudal elements of Sphinx-managed shared model instances and integrate into the load/edit/save lifecycle of the same</t>
+  </si>
+  <si>
+    <t>Common logic for GMF-based graphical editors that operate on indiviudal elements of Sphinx-managed shared model instances and integrate into the load/edit/save lifecycle of the same</t>
+  </si>
+  <si>
+    <t>Common logic for Graphiti-based graphical editors that operate on indiviudal elements of Sphinx-managed shared model instances and integrate into the load/edit/save lifecycle of the same</t>
+  </si>
+  <si>
+    <t>Extended runtime-level services for validating models or model fragments and visualizing validation results</t>
+  </si>
+  <si>
+    <t>Common logic for EMF Compare-based compare and merge editors that operate on indiviudal elements of Sphinx-managed shared model instances and integrate into the load/edit/save lifecycle of the same</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>TODO
+services for managing the lifecycle and editing domains of model instances that need to be centrally provided and shared in the workspace of Sphinx-based modeling tool applications
+common runtime-level enhancements such as description of meta-models, description of shared model instances including their scopes, meta-model compatibility services, as well as a couple of performance optimizations and utilities</t>
+  </si>
+  <si>
+    <t>Subversive-based support for using Sphinx-based compare and merge editors in team operations with SVN repositories</t>
+  </si>
+  <si>
+    <t>Sphinx Core</t>
+  </si>
+  <si>
+    <t>Common logic for Common Navigator views that operate on Sphinx-managed shared model instances and integrate into the load/edit/save lifecycle of the same</t>
+  </si>
+  <si>
+    <t>Sphinx Xtend/Xpand IDE Integration</t>
+  </si>
+  <si>
+    <t>Sphinx Compare Team Support (Subversive SVN)</t>
+  </si>
+  <si>
+    <t>Sphinx Compare Engine &amp; Editor</t>
+  </si>
+  <si>
+    <t>Sphinx Validation Runtime Extensions</t>
+  </si>
+  <si>
+    <t>Sphinx Graphiti Editor Sockets</t>
+  </si>
+  <si>
+    <t>Sphinx GMF Editor Sockets</t>
+  </si>
+  <si>
+    <t>Sphinx Form Editor Sockets</t>
+  </si>
+  <si>
+    <t>Sphinx Common Navigator Sockets</t>
+  </si>
+  <si>
+    <t>Sphinx Core Examples</t>
+  </si>
+  <si>
+    <t>Sphinx Navigator Examples</t>
+  </si>
+  <si>
+    <t>Sphinx Exemplary Validation IDE Integration</t>
+  </si>
+  <si>
+    <t>Sphinx Exemplary Xtend/Xpand IDE Integration</t>
+  </si>
+  <si>
+    <t>Sphinx Hummingbird Metamodels and IDE Integration Examples</t>
+  </si>
+  <si>
+    <t>Sphinx Exemplary UML2 IDE Integration</t>
+  </si>
+  <si>
+    <t>Sphinx Exemplary Extended Library IDE integration</t>
+  </si>
+  <si>
+    <t>Includes Sphinx runtime binaries (without source code and documentation)</t>
+  </si>
+  <si>
+    <t>Includes Sphinx runtime, source code and documentation (but no examples)</t>
+  </si>
+  <si>
+    <t>Includes Sphinx examples (with source code)</t>
+  </si>
+  <si>
+    <t>automatically generated</t>
+  </si>
+  <si>
+    <t>Includes utilities for JUnit-based Sphinx integration tests running against a predefined reference workspace (with source code)</t>
+  </si>
+  <si>
+    <t>org.eclipse.sphinx.emf.navigators
+org.eclipse.sphinx.emf.editors.forms org.eclipse.sphinx.emf.editors.forms.nebula 
+org.eclipse.sphinx.gmf.editors
+org.eclipse.sphinx.graphiti.editors
+org.eclipse.sphinx.emf.validation
+org.eclipse.sphinx.emf.compare
+org.eclipse.sphinx.emf.compare.team.subversive
+org.eclipse.sphinx.xtendxpand
+org.eclipse.sphinx.core</t>
+  </si>
+  <si>
     <t>org.eclipse.sphinx.examples.core
 org.eclipse.sphinx.examples.validation
 org.eclipse.sphinx.examples.xtendxpand
-org.eclipse.sphinx.examples.navigators
+org.eclipse.sphinx.examples.navigators org.eclipse.sphinx.examples.editors.forms.nebula
 org.eclipse.sphinx.examples.metamodels.hummingbird
 org.eclipse.sphinx.examples.metamodels.uml2
 org.eclipse.sphinx.examples.metamodels.library</t>
-  </si>
-  <si>
-    <t>all generated source plug-ins</t>
-  </si>
-  <si>
-    <t>all generated source features</t>
-  </si>
-  <si>
-    <t>Included plug-ins</t>
-  </si>
-  <si>
-    <t>Included features</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Exposed in update site/downloads</t>
-  </si>
-  <si>
-    <t>Sub service</t>
-  </si>
-  <si>
-    <t>Feature id</t>
-  </si>
-  <si>
-    <t>Feature name</t>
-  </si>
-  <si>
-    <t>Feature description</t>
-  </si>
-  <si>
-    <t>Sphinx Runtime</t>
-  </si>
-  <si>
-    <t>Sphinx Documentation</t>
-  </si>
-  <si>
-    <t>Sphinx SDK</t>
-  </si>
-  <si>
-    <t>Sphinx Examples</t>
-  </si>
-  <si>
-    <t>Sphinx Tests</t>
-  </si>
-  <si>
-    <t>Sphinx Test Utilities</t>
-  </si>
-  <si>
-    <t>Third-Party Components for Sphinx</t>
-  </si>
-  <si>
-    <t>Includes Sphinx Developer Guide (Help)</t>
-  </si>
-  <si>
-    <t>Includes Sphinx unit and integration tests</t>
-  </si>
-  <si>
-    <t>Includes third-party components required by Sphinx (selected Orbit plug-ins)</t>
-  </si>
-  <si>
-    <t>Compare &amp; Merge IDE Integration</t>
-  </si>
-  <si>
-    <t>M2x IDE Integration</t>
-  </si>
-  <si>
-    <t>Xtend/Xpand IDE Integration</t>
-  </si>
-  <si>
-    <t>Compare Team Support (Subversive SVN)</t>
-  </si>
-  <si>
-    <t>Exemplary UML2 IDE integration including Model Explorer view contribution for UML2 content, and generic UML2 form editor</t>
-  </si>
-  <si>
-    <t>IDE integration of EMF Extended Library example  including Model Explorer view contribution for Extended Library content, and generic Extended Library form editor</t>
-  </si>
-  <si>
-    <t>Hummingbird metamodels and IDE integration including Model Explorer view contribution for Hummingbird content, generic Hummingbird form editor, exemplary graphical Hummingbird editors, exemplary validation services and constraints for Hummingbird, exemplary compare &amp; merge support for Hummingbird, model transformation and code generation examples for Hummingbird, and more</t>
-  </si>
-  <si>
-    <t>Exemplary Xtend/Xpand IDE integration including model transformation and code generation context menu contributions, preferences for Xpand outlets, and more</t>
-  </si>
-  <si>
-    <t>Examplary Validation IDE integration including context menu contributions and actions for invoking validation in various ways</t>
-  </si>
-  <si>
-    <t>Generic Model Explorer view</t>
-  </si>
-  <si>
-    <t>Includes Sphinx Perspective, exemplary generic model manipulation actions, and more</t>
-  </si>
-  <si>
-    <t>Common logic for form editors that operate on indiviudal elements of Sphinx-managed shared model instances and integrate into the load/edit/save lifecycle of the same</t>
-  </si>
-  <si>
-    <t>Common logic for GMF-based graphical editors that operate on indiviudal elements of Sphinx-managed shared model instances and integrate into the load/edit/save lifecycle of the same</t>
-  </si>
-  <si>
-    <t>Common logic for Graphiti-based graphical editors that operate on indiviudal elements of Sphinx-managed shared model instances and integrate into the load/edit/save lifecycle of the same</t>
-  </si>
-  <si>
-    <t>Extended runtime-level services for validating models or model fragments and visualizing validation results</t>
-  </si>
-  <si>
-    <t>Common logic for EMF Compare-based compare and merge editors that operate on indiviudal elements of Sphinx-managed shared model instances and integrate into the load/edit/save lifecycle of the same</t>
-  </si>
-  <si>
-    <t>TODO</t>
-  </si>
-  <si>
-    <t>TODO
-services for managing the lifecycle and editing domains of model instances that need to be centrally provided and shared in the workspace of Sphinx-based modeling tool applications
-common runtime-level enhancements such as description of meta-models, description of shared model instances including their scopes, meta-model compatibility services, as well as a couple of performance optimizations and utilities</t>
-  </si>
-  <si>
-    <t>Subversive-based support for using Sphinx-based compare and merge editors in team operations with SVN repositories</t>
-  </si>
-  <si>
-    <t>Sphinx Core</t>
-  </si>
-  <si>
-    <t>Common logic for Common Navigator views that operate on Sphinx-managed shared model instances and integrate into the load/edit/save lifecycle of the same</t>
-  </si>
-  <si>
-    <t>Sphinx Xtend/Xpand IDE Integration</t>
-  </si>
-  <si>
-    <t>Sphinx Compare Team Support (Subversive SVN)</t>
-  </si>
-  <si>
-    <t>Sphinx Compare Engine &amp; Editor</t>
-  </si>
-  <si>
-    <t>Sphinx Validation Runtime Extensions</t>
-  </si>
-  <si>
-    <t>Sphinx Graphiti Editor Sockets</t>
-  </si>
-  <si>
-    <t>Sphinx GMF Editor Sockets</t>
-  </si>
-  <si>
-    <t>Sphinx Form Editor Sockets</t>
-  </si>
-  <si>
-    <t>Sphinx Common Navigator Sockets</t>
-  </si>
-  <si>
-    <t>Sphinx Core Examples</t>
-  </si>
-  <si>
-    <t>Sphinx Navigator Examples</t>
-  </si>
-  <si>
-    <t>Sphinx Exemplary Validation IDE Integration</t>
-  </si>
-  <si>
-    <t>Sphinx Exemplary Xtend/Xpand IDE Integration</t>
-  </si>
-  <si>
-    <t>Sphinx Hummingbird Metamodels and IDE Integration Examples</t>
-  </si>
-  <si>
-    <t>Sphinx Exemplary UML2 IDE Integration</t>
-  </si>
-  <si>
-    <t>Sphinx Exemplary Extended Library IDE integration</t>
-  </si>
-  <si>
-    <t>Includes Sphinx runtime binaries (without source code and documentation)</t>
-  </si>
-  <si>
-    <t>Includes Sphinx runtime, source code and documentation (but no examples)</t>
-  </si>
-  <si>
-    <t>Includes Sphinx examples (with source code)</t>
-  </si>
-  <si>
-    <t>automatically generated</t>
-  </si>
-  <si>
-    <t>Includes utilities for JUnit-based Sphinx integration tests running against a predefined reference workspace (with source code)</t>
   </si>
 </sst>
 </file>
@@ -608,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -724,9 +724,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -739,9 +742,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -779,7 +782,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -851,7 +854,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1030,8 +1033,8 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1046,37 +1049,37 @@
   <sheetData>
     <row r="1" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="118.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" ht="132" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="E2" s="12" t="s">
-        <v>41</v>
+      <c r="E2" s="41" t="s">
+        <v>125</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>39</v>
@@ -1084,19 +1087,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>40</v>
@@ -1104,16 +1107,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="22" t="s">
@@ -1125,32 +1128,32 @@
         <v>32</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D6" s="11"/>
-      <c r="E6" s="12" t="s">
-        <v>64</v>
+      <c r="E6" s="41" t="s">
+        <v>126</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>39</v>
@@ -1161,13 +1164,13 @@
         <v>38</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>34</v>
@@ -1181,10 +1184,10 @@
         <v>34</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>37</v>
@@ -1199,10 +1202,10 @@
         <v>35</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>36</v>
@@ -1247,16 +1250,16 @@
         <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>20</v>
@@ -1276,10 +1279,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>26</v>
@@ -1295,10 +1298,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>12</v>
@@ -1314,13 +1317,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" s="8"/>
     </row>
@@ -1333,10 +1336,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>29</v>
@@ -1352,10 +1355,10 @@
         <v>10</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>25</v>
@@ -1364,19 +1367,19 @@
     </row>
     <row r="7" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>27</v>
@@ -1386,16 +1389,16 @@
     <row r="8" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>28</v>
@@ -1404,19 +1407,19 @@
     </row>
     <row r="9" spans="1:7" ht="66" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>30</v>
@@ -1434,10 +1437,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>24</v>
@@ -1512,13 +1515,13 @@
   <sheetData>
     <row r="1" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>20</v>
@@ -1527,100 +1530,100 @@
     </row>
     <row r="2" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>51</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/docs/org.eclipse.sphinx.doc.design/SphinxFeatureMap.xlsx
+++ b/docs/org.eclipse.sphinx.doc.design/SphinxFeatureMap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="15132" windowHeight="9240"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="15132" windowHeight="9240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Container Features" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="130">
   <si>
     <t>Eclipse Platform Extensions</t>
   </si>
@@ -204,21 +204,6 @@
 org.eclipse.sphinx.examples.common.ui</t>
   </si>
   <si>
-    <t>org.eclipse.sphinx.examples.hummingbird10
-org.eclipse.sphinx.examples.hummingbird10.edit
-org.eclipse.sphinx.examples.hummingbird10.editor
-org.eclipse.sphinx.examples.hummingbird20
-org.eclipse.sphinx.examples.hummingbird20.edit
-org.eclipse.sphinx.examples.hummingbird20.editor
-org.eclipse.sphinx.examples.hummingbird.ide
-org.eclipse.sphinx.examples.hummingbird.ide.ui
-org.eclipse.sphinx.examples.hummingbird.compare
-org.eclipse.sphinx.examples.hummingbird20.diagram.graphiti
-org.eclipse.sphinx.examples.hummingbird20.codegen.xpand.newwizard
-org.eclipse.sphinx.examples.hummingbird20.transform.xtend.newwizard
-org.eclipse.sphinx.examples.sampleworkspace.newwizard</t>
-  </si>
-  <si>
     <t>org.eclipse.sphinx.examples.metamodels.hummingbird</t>
   </si>
   <si>
@@ -455,10 +440,34 @@
     <t>org.eclipse.sphinx.examples.core
 org.eclipse.sphinx.examples.validation
 org.eclipse.sphinx.examples.xtendxpand
-org.eclipse.sphinx.examples.navigators org.eclipse.sphinx.examples.editors.forms.nebula
+org.eclipse.sphinx.examples.navigators
 org.eclipse.sphinx.examples.metamodels.hummingbird
 org.eclipse.sphinx.examples.metamodels.uml2
 org.eclipse.sphinx.examples.metamodels.library</t>
+  </si>
+  <si>
+    <t>org.eclipse.sphinx.emf.editors.forms.nebula</t>
+  </si>
+  <si>
+    <t>Sphinx Nebula Extensions for Form Editors</t>
+  </si>
+  <si>
+    <t>Form sections embedding Nebula widgets that are compatible with Sphinx form editors sockets</t>
+  </si>
+  <si>
+    <t>org.eclipse.sphinx.examples.hummingbird10
+org.eclipse.sphinx.examples.hummingbird10.edit
+org.eclipse.sphinx.examples.hummingbird10.editor
+org.eclipse.sphinx.examples.hummingbird20
+org.eclipse.sphinx.examples.hummingbird20.edit
+org.eclipse.sphinx.examples.hummingbird20.editor org.eclipse.sphinx.examples.hummingbird20.editors.nebula
+org.eclipse.sphinx.examples.hummingbird.ide
+org.eclipse.sphinx.examples.hummingbird.ide.ui
+org.eclipse.sphinx.examples.hummingbird.compare
+org.eclipse.sphinx.examples.hummingbird20.diagram.graphiti
+org.eclipse.sphinx.examples.hummingbird20.codegen.xpand.newwizard
+org.eclipse.sphinx.examples.hummingbird20.transform.xtend.newwizard
+org.eclipse.sphinx.examples.sampleworkspace.newwizard</t>
   </si>
 </sst>
 </file>
@@ -608,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -700,6 +709,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -724,8 +739,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1033,7 +1051,7 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1049,22 +1067,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="132" x14ac:dyDescent="0.25">
@@ -1072,14 +1090,14 @@
         <v>31</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="E2" s="41" t="s">
-        <v>125</v>
+      <c r="E2" s="34" t="s">
+        <v>124</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>39</v>
@@ -1087,19 +1105,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>40</v>
@@ -1107,16 +1125,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="22" t="s">
@@ -1128,32 +1146,32 @@
         <v>32</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" s="11"/>
-      <c r="E6" s="41" t="s">
-        <v>126</v>
+      <c r="E6" s="34" t="s">
+        <v>125</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>39</v>
@@ -1164,10 +1182,10 @@
         <v>38</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>43</v>
@@ -1184,10 +1202,10 @@
         <v>34</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>37</v>
@@ -1202,10 +1220,10 @@
         <v>35</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>36</v>
@@ -1228,10 +1246,10 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1250,16 +1268,16 @@
         <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>20</v>
@@ -1269,7 +1287,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="32" t="s">
@@ -1279,10 +1297,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>26</v>
@@ -1290,201 +1308,219 @@
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="33" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="32" t="s">
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="39"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>109</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="19"/>
+    <row r="6" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C6" s="10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>108</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>58</v>
-      </c>
+    <row r="7" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="19"/>
       <c r="C7" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>107</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="32" t="s">
-        <v>87</v>
+    <row r="8" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>106</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>28</v>
+        <v>98</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>27</v>
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" ht="66" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>85</v>
-      </c>
+    <row r="9" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
       <c r="B9" s="32" t="s">
         <v>86</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>105</v>
       </c>
       <c r="E9" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="33"/>
-    </row>
-    <row r="11" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="19" t="s">
+      <c r="G11" s="35"/>
+    </row>
+    <row r="12" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="9" t="s">
+      <c r="C12" s="38"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="34"/>
-    </row>
-    <row r="12" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="19" t="s">
+      <c r="G12" s="36"/>
+    </row>
+    <row r="13" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="9" t="s">
+      <c r="C13" s="38"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="35"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="4"/>
+      <c r="G13" s="37"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="D10:D12"/>
+  <mergeCells count="8">
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
@@ -1500,8 +1536,8 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1515,10 +1551,10 @@
   <sheetData>
     <row r="1" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>41</v>
@@ -1533,10 +1569,10 @@
         <v>50</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>51</v>
@@ -1547,10 +1583,10 @@
         <v>48</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>45</v>
@@ -1561,10 +1597,10 @@
         <v>47</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>49</v>
@@ -1575,55 +1611,55 @@
         <v>46</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="184.8" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/docs/org.eclipse.sphinx.doc.design/SphinxFeatureMap.xlsx
+++ b/docs/org.eclipse.sphinx.doc.design/SphinxFeatureMap.xlsx
@@ -747,7 +747,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -760,9 +760,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -800,7 +800,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -872,7 +872,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1536,7 +1536,7 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>

--- a/docs/org.eclipse.sphinx.doc.design/SphinxFeatureMap.xlsx
+++ b/docs/org.eclipse.sphinx.doc.design/SphinxFeatureMap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="15132" windowHeight="9240" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="15132" windowHeight="9240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Container Features" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="132">
   <si>
     <t>Eclipse Platform Extensions</t>
   </si>
@@ -424,17 +424,6 @@
   </si>
   <si>
     <t>Includes utilities for JUnit-based Sphinx integration tests running against a predefined reference workspace (with source code)</t>
-  </si>
-  <si>
-    <t>org.eclipse.sphinx.emf.navigators
-org.eclipse.sphinx.emf.editors.forms org.eclipse.sphinx.emf.editors.forms.nebula 
-org.eclipse.sphinx.gmf.editors
-org.eclipse.sphinx.graphiti.editors
-org.eclipse.sphinx.emf.validation
-org.eclipse.sphinx.emf.compare
-org.eclipse.sphinx.emf.compare.team.subversive
-org.eclipse.sphinx.xtendxpand
-org.eclipse.sphinx.core</t>
   </si>
   <si>
     <t>org.eclipse.sphinx.examples.core
@@ -468,6 +457,23 @@
 org.eclipse.sphinx.examples.hummingbird20.codegen.xpand.newwizard
 org.eclipse.sphinx.examples.hummingbird20.transform.xtend.newwizard
 org.eclipse.sphinx.examples.sampleworkspace.newwizard</t>
+  </si>
+  <si>
+    <t>org.eclipse.sphinx.emf.navigators
+org.eclipse.sphinx.emf.editors.forms org.eclipse.sphinx.emf.editors.forms.nebula 
+org.eclipse.sphinx.gmf.editors
+org.eclipse.sphinx.graphiti.editors
+org.eclipse.sphinx.emf.validation
+org.eclipse.sphinx.emf.compare
+org.eclipse.sphinx.emf.compare.team.subversive
+org.eclipse.sphinx.xtendxpand     org.eclipse.sphinx.pde
+org.eclipse.sphinx.core</t>
+  </si>
+  <si>
+    <t>org.eclipse.sphinx.pde</t>
+  </si>
+  <si>
+    <t>Sphinx PDE</t>
   </si>
 </sst>
 </file>
@@ -617,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -718,12 +724,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -733,6 +733,24 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -747,7 +765,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -760,9 +778,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -800,7 +818,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -872,7 +890,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1051,8 +1069,8 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1085,7 +1103,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="132" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>31</v>
       </c>
@@ -1097,7 +1115,7 @@
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="34" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>39</v>
@@ -1171,7 +1189,7 @@
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>39</v>
@@ -1246,10 +1264,10 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1287,7 +1305,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="43" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="32" t="s">
@@ -1308,8 +1326,8 @@
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="47" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="33" t="s">
@@ -1327,24 +1345,24 @@
       <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="44"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="E4" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>128</v>
-      </c>
       <c r="F4" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="32" t="s">
         <v>18</v>
       </c>
@@ -1363,7 +1381,7 @@
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="19" t="s">
         <v>19</v>
       </c>
@@ -1401,7 +1419,7 @@
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="43" t="s">
         <v>83</v>
       </c>
       <c r="B8" s="19" t="s">
@@ -1422,7 +1440,7 @@
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="32" t="s">
         <v>86</v>
       </c>
@@ -1461,65 +1479,82 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="35"/>
+    </row>
+    <row r="12" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B12" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C12" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D12" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E12" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="35"/>
-    </row>
-    <row r="12" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="19" t="s">
+      <c r="G12" s="39"/>
+    </row>
+    <row r="13" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="43"/>
+      <c r="B13" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="9" t="s">
+      <c r="C13" s="42"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="36"/>
-    </row>
-    <row r="13" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="19" t="s">
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="43"/>
+      <c r="B14" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="9" t="s">
+      <c r="C14" s="42"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="37"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F18" s="4"/>
+      <c r="G14" s="41"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="C12:C14"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="D12:D14"/>
     <mergeCell ref="B3:B4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1536,7 +1571,7 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1631,7 +1666,7 @@
         <v>89</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">

--- a/docs/org.eclipse.sphinx.doc.design/SphinxFeatureMap.xlsx
+++ b/docs/org.eclipse.sphinx.doc.design/SphinxFeatureMap.xlsx
@@ -1267,7 +1267,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>

--- a/docs/org.eclipse.sphinx.doc.design/SphinxFeatureMap.xlsx
+++ b/docs/org.eclipse.sphinx.doc.design/SphinxFeatureMap.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="15132" windowHeight="9240" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="15135" windowHeight="9240"/>
   </bookViews>
   <sheets>
-    <sheet name="Container Features" sheetId="4" r:id="rId1"/>
+    <sheet name="Distribution Features" sheetId="4" r:id="rId1"/>
     <sheet name="Component Features" sheetId="1" r:id="rId2"/>
     <sheet name="Example Features" sheetId="5" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="124">
   <si>
     <t>Eclipse Platform Extensions</t>
   </si>
@@ -42,12 +42,6 @@
     <t>org.eclipse.sphinx.xtendxpand</t>
   </si>
   <si>
-    <t>org.eclipse.sphinx.emf.compare.team.subversive</t>
-  </si>
-  <si>
-    <t>org.eclipse.sphinx.emf.compare</t>
-  </si>
-  <si>
     <t>org.eclipse.sphinx.emf.validation</t>
   </si>
   <si>
@@ -60,9 +54,6 @@
     <t>org.eclipse.sphinx.gmf.editors</t>
   </si>
   <si>
-    <t>org.eclipse.sphinx.graphiti.editors</t>
-  </si>
-  <si>
     <t>org.eclipse.sphinx.emf.navigators</t>
   </si>
   <si>
@@ -73,9 +64,6 @@
   </si>
   <si>
     <t>GMF Editor Sockets</t>
-  </si>
-  <si>
-    <t>Graphiti Editor Sockets</t>
   </si>
   <si>
     <t>Included Plug-ins</t>
@@ -102,17 +90,6 @@
   </si>
   <si>
     <t>org.eclipse.sphinx.emf.explorer</t>
-  </si>
-  <si>
-    <t>org.eclipse.sphinx.emf.compare
-org.eclipse.sphinx.emf.compare.ui</t>
-  </si>
-  <si>
-    <t>org.eclipse.sphinx.emf.compare.team.subversive.ui</t>
-  </si>
-  <si>
-    <t>org.eclipse.sphinx.graphiti.workspace
-org.eclipse.sphinx.graphiti.workspace.ui (rename to graphiti.editors)</t>
   </si>
   <si>
     <t>org.eclipse.sphinx.emf.mwe
@@ -150,32 +127,7 @@
 org.eclipse.sphinx.testutils.integration</t>
   </si>
   <si>
-    <t>org.eclipse.sphinx.tests</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>org.eclipse.sphinx.gmf.runtime.ui (rename to gmf.editors)
-org.eclipse.sphinx.gmf.workspace</t>
-  </si>
-  <si>
-    <t>org.eclipse.sphinx.tests.emf
-org.eclipse.sphinx.tests.emf.integration
-org.eclipse.sphinx.tests.emf.ui.integration
-org.eclipse.sphinx.tests.emf.workspace
-org.eclipse.sphinx.tests.emf.workspace.integration
-org.eclipse.sphinx.tests.platform
-org.eclipse.sphinx.tests.platform.integration
-org.eclipse.sphinx.testutils.integration.referenceworkspace
-org.eclipse.sphinx.tests.xtendxpand.integration
-org.eclipse.sphinx.testutils.integration.referenceworkspace.xtendxpand</t>
   </si>
   <si>
     <t>org.eclipse.sphinx.examples.explorer</t>
@@ -219,9 +171,6 @@
   <si>
     <t>org.eclipse.sphinx.examples.uml2.ide
 org.eclipse.sphinx.examples.uml2.ide.ui</t>
-  </si>
-  <si>
-    <t>Compare Engine &amp; Editor</t>
   </si>
   <si>
     <t>org.eclipse.sphinx.source</t>
@@ -238,12 +187,6 @@
     <t>org.eclipse.sphinx.doc</t>
   </si>
   <si>
-    <t>all generated source plug-ins</t>
-  </si>
-  <si>
-    <t>all generated source features</t>
-  </si>
-  <si>
     <t>Included plug-ins</t>
   </si>
   <si>
@@ -256,9 +199,6 @@
     <t>Id</t>
   </si>
   <si>
-    <t>Exposed in update site/downloads</t>
-  </si>
-  <si>
     <t>Sub service</t>
   </si>
   <si>
@@ -283,9 +223,6 @@
     <t>Sphinx Examples</t>
   </si>
   <si>
-    <t>Sphinx Tests</t>
-  </si>
-  <si>
     <t>Sphinx Test Utilities</t>
   </si>
   <si>
@@ -295,92 +232,21 @@
     <t>Includes Sphinx Developer Guide (Help)</t>
   </si>
   <si>
-    <t>Includes Sphinx unit and integration tests</t>
-  </si>
-  <si>
-    <t>Includes third-party components required by Sphinx (selected Orbit plug-ins)</t>
-  </si>
-  <si>
-    <t>Compare &amp; Merge IDE Integration</t>
-  </si>
-  <si>
     <t>M2x IDE Integration</t>
   </si>
   <si>
     <t>Xtend/Xpand IDE Integration</t>
   </si>
   <si>
-    <t>Compare Team Support (Subversive SVN)</t>
-  </si>
-  <si>
-    <t>Exemplary UML2 IDE integration including Model Explorer view contribution for UML2 content, and generic UML2 form editor</t>
-  </si>
-  <si>
-    <t>IDE integration of EMF Extended Library example  including Model Explorer view contribution for Extended Library content, and generic Extended Library form editor</t>
-  </si>
-  <si>
-    <t>Hummingbird metamodels and IDE integration including Model Explorer view contribution for Hummingbird content, generic Hummingbird form editor, exemplary graphical Hummingbird editors, exemplary validation services and constraints for Hummingbird, exemplary compare &amp; merge support for Hummingbird, model transformation and code generation examples for Hummingbird, and more</t>
-  </si>
-  <si>
-    <t>Exemplary Xtend/Xpand IDE integration including model transformation and code generation context menu contributions, preferences for Xpand outlets, and more</t>
-  </si>
-  <si>
-    <t>Examplary Validation IDE integration including context menu contributions and actions for invoking validation in various ways</t>
-  </si>
-  <si>
-    <t>Generic Model Explorer view</t>
-  </si>
-  <si>
-    <t>Includes Sphinx Perspective, exemplary generic model manipulation actions, and more</t>
-  </si>
-  <si>
-    <t>Common logic for form editors that operate on indiviudal elements of Sphinx-managed shared model instances and integrate into the load/edit/save lifecycle of the same</t>
-  </si>
-  <si>
-    <t>Common logic for GMF-based graphical editors that operate on indiviudal elements of Sphinx-managed shared model instances and integrate into the load/edit/save lifecycle of the same</t>
-  </si>
-  <si>
-    <t>Common logic for Graphiti-based graphical editors that operate on indiviudal elements of Sphinx-managed shared model instances and integrate into the load/edit/save lifecycle of the same</t>
-  </si>
-  <si>
-    <t>Extended runtime-level services for validating models or model fragments and visualizing validation results</t>
-  </si>
-  <si>
-    <t>Common logic for EMF Compare-based compare and merge editors that operate on indiviudal elements of Sphinx-managed shared model instances and integrate into the load/edit/save lifecycle of the same</t>
-  </si>
-  <si>
-    <t>TODO</t>
-  </si>
-  <si>
-    <t>TODO
-services for managing the lifecycle and editing domains of model instances that need to be centrally provided and shared in the workspace of Sphinx-based modeling tool applications
-common runtime-level enhancements such as description of meta-models, description of shared model instances including their scopes, meta-model compatibility services, as well as a couple of performance optimizations and utilities</t>
-  </si>
-  <si>
-    <t>Subversive-based support for using Sphinx-based compare and merge editors in team operations with SVN repositories</t>
-  </si>
-  <si>
     <t>Sphinx Core</t>
   </si>
   <si>
-    <t>Common logic for Common Navigator views that operate on Sphinx-managed shared model instances and integrate into the load/edit/save lifecycle of the same</t>
-  </si>
-  <si>
     <t>Sphinx Xtend/Xpand IDE Integration</t>
   </si>
   <si>
-    <t>Sphinx Compare Team Support (Subversive SVN)</t>
-  </si>
-  <si>
-    <t>Sphinx Compare Engine &amp; Editor</t>
-  </si>
-  <si>
     <t>Sphinx Validation Runtime Extensions</t>
   </si>
   <si>
-    <t>Sphinx Graphiti Editor Sockets</t>
-  </si>
-  <si>
     <t>Sphinx GMF Editor Sockets</t>
   </si>
   <si>
@@ -409,21 +275,6 @@
   </si>
   <si>
     <t>Sphinx Exemplary Extended Library IDE integration</t>
-  </si>
-  <si>
-    <t>Includes Sphinx runtime binaries (without source code and documentation)</t>
-  </si>
-  <si>
-    <t>Includes Sphinx runtime, source code and documentation (but no examples)</t>
-  </si>
-  <si>
-    <t>Includes Sphinx examples (with source code)</t>
-  </si>
-  <si>
-    <t>automatically generated</t>
-  </si>
-  <si>
-    <t>Includes utilities for JUnit-based Sphinx integration tests running against a predefined reference workspace (with source code)</t>
   </si>
   <si>
     <t>org.eclipse.sphinx.examples.core
@@ -439,9 +290,6 @@
   </si>
   <si>
     <t>Sphinx Nebula Extensions for Form Editors</t>
-  </si>
-  <si>
-    <t>Form sections embedding Nebula widgets that are compatible with Sphinx form editors sockets</t>
   </si>
   <si>
     <t>org.eclipse.sphinx.examples.hummingbird10
@@ -459,21 +307,135 @@
 org.eclipse.sphinx.examples.sampleworkspace.newwizard</t>
   </si>
   <si>
-    <t>org.eclipse.sphinx.emf.navigators
-org.eclipse.sphinx.emf.editors.forms org.eclipse.sphinx.emf.editors.forms.nebula 
+    <t>org.eclipse.sphinx.pde</t>
+  </si>
+  <si>
+    <t>Sphinx PDE</t>
+  </si>
+  <si>
+    <t>Extensions of Xtend/Xpand runtime and UI to achieve tight integration with Sphinx workspace management and simplify selection and invocation of Xtend/Xpand/Check templates on Sphinx-managed shared model instances.</t>
+  </si>
+  <si>
+    <t>Useful extensions of the Plug-in Development Environment runtime.</t>
+  </si>
+  <si>
+    <t>org.eclipse.sphinx.gmf.runtime.ui
+org.eclipse.sphinx.gmf.workspace</t>
+  </si>
+  <si>
+    <t>Sphinx model workspace management enabling model instances to be to centrally created and shared across the whole workspace such all views, editors, builders, and processors that need to access these models operate on the same model instance. This includes the mapping of model files to editing domains, the management of the models' load/unload and dirty state/save lifecycles as well as the synchronization of the loaded model instances with changes in the underlying resources. Along with that, a number of common runtime-level enhancements of EMF and the Eclipse Platform are provided such as descriptors of metamodels that may consist of a single of multiple EPackages, dynamically modifiable resource scopes to determine which resources belong to which shared model instance, model migration services, on-the-fly XML and XSD validation and problem marker creation while model are being loaded and saved, as well as a couple of performance optimizations and utilities.</t>
+  </si>
+  <si>
+    <t>Common logic for Common Navigator views that operate on Sphinx-managed shared model instances and integrate into the load/edit/save lifecycle of the same.</t>
+  </si>
+  <si>
+    <t>Common logic for form editors that operate on indiviudal elements of Sphinx-managed shared model instances and integrate into the load/edit/save lifecycle of the same.</t>
+  </si>
+  <si>
+    <t>Form sections embedding Nebula widgets that are compatible with Sphinx form editors sockets.</t>
+  </si>
+  <si>
+    <t>Common logic for GMF-based graphical editors that operate on indiviudal elements of Sphinx-managed shared model instances and integrate into the load/edit/save lifecycle of the same.</t>
+  </si>
+  <si>
+    <t>Extended runtime-level services for validating models or model fragments and visualizing validation results.</t>
+  </si>
+  <si>
+    <t>Includes Sphinx Perspective, exemplary generic model manipulation actions, and more.</t>
+  </si>
+  <si>
+    <t>Examplary Validation IDE integration including context menu contributions and actions for invoking validation in various ways.</t>
+  </si>
+  <si>
+    <t>Exemplary Xtend/Xpand IDE integration including model transformation and code generation context menu contributions, preferences for Xpand outlets, and more.</t>
+  </si>
+  <si>
+    <t>Generic Model Explorer view.</t>
+  </si>
+  <si>
+    <t>Hummingbird metamodels and IDE integration including Model Explorer view contribution for Hummingbird content, generic Hummingbird form editor, exemplary graphical Hummingbird editors, exemplary validation services and constraints for Hummingbird, exemplary compare &amp; merge support for Hummingbird, model transformation and code generation examples for Hummingbird, and more.</t>
+  </si>
+  <si>
+    <t>Exemplary UML2 IDE integration including Model Explorer view contribution for UML2 content, and generic UML2 form editor.</t>
+  </si>
+  <si>
+    <t>IDE integration of EMF Extended Library example  including Model Explorer view contribution for Extended Library content, and generic Extended Library form editor.</t>
+  </si>
+  <si>
+    <t>Includes Sphinx runtime binaries (without source code and documentation).</t>
+  </si>
+  <si>
+    <t>Includes Sphinx runtime, source code and documentation (but no examples).</t>
+  </si>
+  <si>
+    <t>Includes Sphinx examples (with source code).</t>
+  </si>
+  <si>
+    <t>Includes utilities for JUnit-based Sphinx integration tests running against a predefined reference workspace (with source code).</t>
+  </si>
+  <si>
+    <t>Includes third-party components required by Sphinx (selected Orbit plug-ins).</t>
+  </si>
+  <si>
+    <t>Includes Sphinx source code.</t>
+  </si>
+  <si>
+    <t>Sphinx Source</t>
+  </si>
+  <si>
+    <t>Update site/p2 repository category</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Sphinx</t>
+  </si>
+  <si>
+    <t>org.eclipse.sphinx.nebula.sdk</t>
+  </si>
+  <si>
+    <t>org.eclipse.sphinx.nebula</t>
+  </si>
+  <si>
+    <t>org.eclipse.sphinx.nebula.source</t>
+  </si>
+  <si>
+    <t>Includes runtime, source code and documentation of Sphinx extensions for Nebula (but no examples).</t>
+  </si>
+  <si>
+    <t>Includes source code of Sphinx extensions for Nebula.</t>
+  </si>
+  <si>
+    <t>Sphinx Auxiliaries</t>
+  </si>
+  <si>
+    <t>org.eclipse.sphinx.core
+org.eclipse.sphinx.emf.editors.forms 
+org.eclipse.sphinx.emf.navigators
+org.eclipse.sphinx.emf.validation
 org.eclipse.sphinx.gmf.editors
 org.eclipse.sphinx.graphiti.editors
-org.eclipse.sphinx.emf.validation
-org.eclipse.sphinx.emf.compare
-org.eclipse.sphinx.emf.compare.team.subversive
-org.eclipse.sphinx.xtendxpand     org.eclipse.sphinx.pde
-org.eclipse.sphinx.core</t>
-  </si>
-  <si>
-    <t>org.eclipse.sphinx.pde</t>
-  </si>
-  <si>
-    <t>Sphinx PDE</t>
+org.eclipse.sphinx.pde
+org.eclipse.sphinx.xtendxpand</t>
+  </si>
+  <si>
+    <t>Generated source plug-ins for all runtime plug-ins that are directly or indirectly included in org.eclipse.sphinx</t>
+  </si>
+  <si>
+    <t>Generated source plug-ins for all runtime plug-ins that are directly or indirectly included in org.eclipse.sphinx.nebula</t>
+  </si>
+  <si>
+    <t>Sphinx Nebula Extensions Runtime</t>
+  </si>
+  <si>
+    <t>Sphinx Nebula Extentions Source</t>
+  </si>
+  <si>
+    <t>Sphinx Nebula Extensions SDK</t>
+  </si>
+  <si>
+    <t>Includes runtime binaries of Sphinx extensions for Nebula (without source code and documentation).</t>
   </si>
 </sst>
 </file>
@@ -657,15 +619,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -682,12 +635,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -718,9 +665,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -733,6 +677,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -761,6 +708,21 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1067,188 +1029,218 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="31.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" style="1" customWidth="1" outlineLevel="1"/>
     <col min="3" max="3" width="35" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="58.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="47.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="145.19999999999999" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="30" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C8" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="48"/>
+      <c r="F10" s="45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="132" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13" t="s">
-        <v>39</v>
+      <c r="C11" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="48"/>
+      <c r="F11" s="45" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1264,297 +1256,237 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="45.21875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="63.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="45.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="63.7109375" customWidth="1"/>
+    <col min="7" max="7" width="42.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="38"/>
+      <c r="B3" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="38"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="38"/>
+      <c r="B5" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D5" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="E5" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="31"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" spans="1:7" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="32" t="s">
+      <c r="G9" s="34"/>
+    </row>
+    <row r="10" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="38"/>
+      <c r="B10" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="19" t="s">
+      <c r="G10" s="35"/>
+    </row>
+    <row r="11" spans="1:7" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="38"/>
+      <c r="B11" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" ht="66" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" s="35"/>
-    </row>
-    <row r="12" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="39"/>
-    </row>
-    <row r="13" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="40"/>
-    </row>
-    <row r="14" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="41"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F19" s="4"/>
+      <c r="G11" s="36"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F16" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="D12:D14"/>
+  <mergeCells count="7">
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="D9:D11"/>
     <mergeCell ref="B3:B4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1571,130 +1503,130 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="52.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="3" max="3" width="43" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="61.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="61.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="2" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="184.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/docs/org.eclipse.sphinx.doc.design/SphinxFeatureMap.xlsx
+++ b/docs/org.eclipse.sphinx.doc.design/SphinxFeatureMap.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="120" yWindow="180" windowWidth="15135" windowHeight="9240"/>
   </bookViews>
   <sheets>
-    <sheet name="Distribution Features" sheetId="4" r:id="rId1"/>
+    <sheet name="Root Features" sheetId="4" r:id="rId1"/>
     <sheet name="Component Features" sheetId="1" r:id="rId2"/>
     <sheet name="Example Features" sheetId="5" r:id="rId3"/>
   </sheets>
@@ -16,16 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="124">
-  <si>
-    <t>Eclipse Platform Extensions</t>
-  </si>
-  <si>
-    <t>EMF Runtime Extensions</t>
-  </si>
-  <si>
-    <t>Workspace Management</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="119">
   <si>
     <t>Navigator &amp; Editor Sockets</t>
   </si>
@@ -67,21 +58,6 @@
   </si>
   <si>
     <t>Included Plug-ins</t>
-  </si>
-  <si>
-    <t>Included Features</t>
-  </si>
-  <si>
-    <t>org.eclipse.sphinx.emf
-org.eclipse.sphinx.emf.ui</t>
-  </si>
-  <si>
-    <t>org.eclipse.sphinx.platform
-org.eclipse.sphinx.platform.ui</t>
-  </si>
-  <si>
-    <t>org.eclipse.sphinx.emf.workspace
-org.eclipse.sphinx.emf.workspace.ui</t>
   </si>
   <si>
     <t>org.eclipse.sphinx.emf.validation
@@ -197,9 +173,6 @@
   </si>
   <si>
     <t>Id</t>
-  </si>
-  <si>
-    <t>Sub service</t>
   </si>
   <si>
     <t>Feature id</t>
@@ -386,9 +359,6 @@
     <t>Update site/p2 repository category</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>Sphinx</t>
   </si>
   <si>
@@ -420,12 +390,6 @@
 org.eclipse.sphinx.xtendxpand</t>
   </si>
   <si>
-    <t>Generated source plug-ins for all runtime plug-ins that are directly or indirectly included in org.eclipse.sphinx</t>
-  </si>
-  <si>
-    <t>Generated source plug-ins for all runtime plug-ins that are directly or indirectly included in org.eclipse.sphinx.nebula</t>
-  </si>
-  <si>
     <t>Sphinx Nebula Extensions Runtime</t>
   </si>
   <si>
@@ -436,6 +400,31 @@
   </si>
   <si>
     <t>Includes runtime binaries of Sphinx extensions for Nebula (without source code and documentation).</t>
+  </si>
+  <si>
+    <t>Source features for all runtime features that are included in org.eclipse.sphinx</t>
+  </si>
+  <si>
+    <t>Source features for all runtime features that are included in org.eclipse.sphinx.nebula</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Sub services</t>
+  </si>
+  <si>
+    <t>Workspace Management,
+EMF Runtime Extensions,
+Eclipse Platform Extensions</t>
+  </si>
+  <si>
+    <t>org.eclipse.sphinx.emf.workspace
+org.eclipse.sphinx.emf.workspace.ui
+org.eclipse.sphinx.emf
+org.eclipse.sphinx.emf.ui
+org.eclipse.sphinx.platform
+org.eclipse.sphinx.platform.ui</t>
   </si>
 </sst>
 </file>
@@ -476,39 +465,15 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -516,220 +481,107 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="22">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -737,6 +589,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:F11" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A1:F11"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Id" dataDxfId="21" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Name" dataDxfId="20" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Description" dataDxfId="19" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Included plug-ins" dataDxfId="18" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="Included features" dataDxfId="15" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Update site/p2 repository category" dataDxfId="14" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A1:F9" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F9"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Top-level service" dataDxfId="13"/>
+    <tableColumn id="2" name="Sub services" dataDxfId="12"/>
+    <tableColumn id="3" name="Feature id" dataDxfId="11"/>
+    <tableColumn id="4" name="Feature name" dataDxfId="10"/>
+    <tableColumn id="5" name="Feature description" dataDxfId="9"/>
+    <tableColumn id="6" name="Included Plug-ins" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau5" displayName="Tableau5" ref="A1:D8" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:D8"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Id" dataDxfId="5"/>
+    <tableColumn id="2" name="Name" dataDxfId="4"/>
+    <tableColumn id="3" name="Description" dataDxfId="3"/>
+    <tableColumn id="4" name="Included Plug-ins" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1032,215 +927,209 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="35" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="59.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="47.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35" style="4" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="24" t="s">
+      <c r="C9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" s="45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="25" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="44" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="44" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="44" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="45" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="11" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="45" t="s">
-        <v>116</v>
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1248,6 +1137,9 @@
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1256,243 +1148,193 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="45.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="63.7109375" customWidth="1"/>
-    <col min="7" max="7" width="42.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="37.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="B7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
-      <c r="B3" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="20"/>
-    </row>
-    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="10" t="s">
+      <c r="D9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
-      <c r="B5" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:7" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="34"/>
-    </row>
-    <row r="10" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
-      <c r="B10" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="35"/>
-    </row>
-    <row r="11" spans="1:7" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
-      <c r="B11" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="36"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F16" s="4"/>
+      <c r="F9" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F14" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="B3:B4"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1504,129 +1346,129 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="43" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="61.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="47.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43" style="1" customWidth="1"/>
+    <col min="4" max="4" width="61.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>39</v>
+      <c r="B2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="B8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1634,5 +1476,8 @@
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/docs/org.eclipse.sphinx.doc.design/SphinxFeatureMap.xlsx
+++ b/docs/org.eclipse.sphinx.doc.design/SphinxFeatureMap.xlsx
@@ -265,21 +265,6 @@
     <t>Sphinx Nebula Extensions for Form Editors</t>
   </si>
   <si>
-    <t>org.eclipse.sphinx.examples.hummingbird10
-org.eclipse.sphinx.examples.hummingbird10.edit
-org.eclipse.sphinx.examples.hummingbird10.editor
-org.eclipse.sphinx.examples.hummingbird20
-org.eclipse.sphinx.examples.hummingbird20.edit
-org.eclipse.sphinx.examples.hummingbird20.editor org.eclipse.sphinx.examples.hummingbird20.editors.nebula
-org.eclipse.sphinx.examples.hummingbird.ide
-org.eclipse.sphinx.examples.hummingbird.ide.ui
-org.eclipse.sphinx.examples.hummingbird.compare
-org.eclipse.sphinx.examples.hummingbird20.diagram.graphiti
-org.eclipse.sphinx.examples.hummingbird20.codegen.xpand.newwizard
-org.eclipse.sphinx.examples.hummingbird20.transform.xtend.newwizard
-org.eclipse.sphinx.examples.sampleworkspace.newwizard</t>
-  </si>
-  <si>
     <t>org.eclipse.sphinx.pde</t>
   </si>
   <si>
@@ -425,6 +410,21 @@
 org.eclipse.sphinx.emf.ui
 org.eclipse.sphinx.platform
 org.eclipse.sphinx.platform.ui</t>
+  </si>
+  <si>
+    <t>org.eclipse.sphinx.examples.hummingbird.ide
+org.eclipse.sphinx.examples.hummingbird.ide.ui
+org.eclipse.sphinx.examples.hummingbird10
+org.eclipse.sphinx.examples.hummingbird10.edit
+org.eclipse.sphinx.examples.hummingbird10.ide.ui
+org.eclipse.sphinx.examples.hummingbird20
+org.eclipse.sphinx.examples.hummingbird20.codegen.xpand.newwizard
+org.eclipse.sphinx.examples.hummingbird20.diagram.gmf
+org.eclipse.sphinx.examples.hummingbird20.edit
+org.eclipse.sphinx.examples.hummingbird20.editors.nebula
+org.eclipse.sphinx.examples.hummingbird20.ide.ui
+org.eclipse.sphinx.examples.hummingbird20.transform.xtend.newwizard
+org.eclipse.sphinx.examples.hummingbird20.validation</t>
   </si>
 </sst>
 </file>
@@ -592,13 +592,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:F11" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:F11" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="A1:F11"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Id" dataDxfId="21" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Name" dataDxfId="20" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Description" dataDxfId="19" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Included plug-ins" dataDxfId="18" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Id" dataDxfId="19" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Name" dataDxfId="18" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Description" dataDxfId="17" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Included plug-ins" dataDxfId="16" dataCellStyle="Normal"/>
     <tableColumn id="5" name="Included features" dataDxfId="15" dataCellStyle="Normal"/>
     <tableColumn id="6" name="Update site/p2 repository category" dataDxfId="14" dataCellStyle="Normal"/>
   </tableColumns>
@@ -607,28 +607,28 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A1:F9" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A1:F9" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:F9"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Top-level service" dataDxfId="13"/>
-    <tableColumn id="2" name="Sub services" dataDxfId="12"/>
-    <tableColumn id="3" name="Feature id" dataDxfId="11"/>
-    <tableColumn id="4" name="Feature name" dataDxfId="10"/>
-    <tableColumn id="5" name="Feature description" dataDxfId="9"/>
-    <tableColumn id="6" name="Included Plug-ins" dataDxfId="8"/>
+    <tableColumn id="1" name="Top-level service" dataDxfId="11"/>
+    <tableColumn id="2" name="Sub services" dataDxfId="10"/>
+    <tableColumn id="3" name="Feature id" dataDxfId="9"/>
+    <tableColumn id="4" name="Feature name" dataDxfId="8"/>
+    <tableColumn id="5" name="Feature description" dataDxfId="7"/>
+    <tableColumn id="6" name="Included Plug-ins" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau5" displayName="Tableau5" ref="A1:D8" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau5" displayName="Tableau5" ref="A1:D8" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D8"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Id" dataDxfId="5"/>
-    <tableColumn id="2" name="Name" dataDxfId="4"/>
-    <tableColumn id="3" name="Description" dataDxfId="3"/>
-    <tableColumn id="4" name="Included Plug-ins" dataDxfId="2"/>
+    <tableColumn id="1" name="Id" dataDxfId="3"/>
+    <tableColumn id="2" name="Name" dataDxfId="2"/>
+    <tableColumn id="3" name="Description" dataDxfId="1"/>
+    <tableColumn id="4" name="Included Plug-ins" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -958,7 +958,7 @@
         <v>43</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="102" x14ac:dyDescent="0.2">
@@ -969,13 +969,13 @@
         <v>49</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -983,16 +983,16 @@
         <v>38</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -1021,62 +1021,62 @@
         <v>51</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>72</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1087,13 +1087,13 @@
         <v>52</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>71</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1104,14 +1104,14 @@
         <v>53</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
@@ -1122,14 +1122,14 @@
         <v>54</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1170,7 +1170,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>46</v>
@@ -1199,7 +1199,7 @@
         <v>63</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>15</v>
@@ -1216,7 +1216,7 @@
         <v>62</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>7</v>
@@ -1230,7 +1230,7 @@
         <v>73</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>72</v>
@@ -1247,10 +1247,10 @@
         <v>61</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -1264,7 +1264,7 @@
         <v>60</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>14</v>
@@ -1284,7 +1284,7 @@
         <v>59</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>16</v>
@@ -1292,16 +1292,16 @@
     </row>
     <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1309,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>3</v>
@@ -1318,10 +1318,10 @@
         <v>58</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1346,7 +1346,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1381,7 +1381,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>32</v>
@@ -1395,7 +1395,7 @@
         <v>66</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>26</v>
@@ -1409,7 +1409,7 @@
         <v>67</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>30</v>
@@ -1423,13 +1423,13 @@
         <v>65</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -1437,10 +1437,10 @@
         <v>68</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -1451,7 +1451,7 @@
         <v>69</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>37</v>
@@ -1465,7 +1465,7 @@
         <v>70</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>34</v>
